--- a/заказы/статистика филиалы/2023/11,23/08,11,23 КИ/дв 08,11,23 лгрсч от филиала.xlsx
+++ b/заказы/статистика филиалы/2023/11,23/08,11,23 КИ/дв 08,11,23 лгрсч от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\08,11,23 филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2023\11,23\08,11,23 КИ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64522335-C89A-457E-996A-DB93B9F97BF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EADB8E-09BE-469C-A565-420B8535F594}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,10 +426,14 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6334,8 +6338,8 @@
   <dimension ref="A1:AB94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD49" sqref="AD49"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U78" sqref="U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.65" customHeight="1" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
@@ -7179,7 +7183,7 @@
       </c>
       <c r="R14" s="20"/>
       <c r="S14" s="20">
-        <f t="shared" ref="S7:S70" si="8">R14</f>
+        <f t="shared" ref="S14:S70" si="8">R14</f>
         <v>0</v>
       </c>
       <c r="T14" s="20"/>
@@ -7234,8 +7238,7 @@
         <v>181</v>
       </c>
       <c r="J15" s="25">
-        <f>VLOOKUP(A15,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="K15" s="26"/>
       <c r="L15" s="26"/>
@@ -7308,8 +7311,7 @@
         <v>31</v>
       </c>
       <c r="J16" s="25">
-        <f>VLOOKUP(A16,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26"/>
@@ -7385,8 +7387,7 @@
         <v>19</v>
       </c>
       <c r="J17" s="25">
-        <f>VLOOKUP(A17,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
@@ -7459,8 +7460,7 @@
         <v>174</v>
       </c>
       <c r="J18" s="25">
-        <f>VLOOKUP(A18,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
@@ -9180,8 +9180,7 @@
         <v>19.882000000000001</v>
       </c>
       <c r="J42" s="25">
-        <f>VLOOKUP(A42,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="26"/>
       <c r="L42" s="26"/>
@@ -10261,8 +10260,7 @@
         <v>179.85499999999999</v>
       </c>
       <c r="J57" s="25">
-        <f>VLOOKUP(A57,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="26"/>
       <c r="L57" s="26"/>
@@ -10493,8 +10491,7 @@
         <v>11.615000000000009</v>
       </c>
       <c r="J60" s="25">
-        <f>VLOOKUP(A60,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K60" s="26"/>
       <c r="L60" s="26"/>
@@ -11056,8 +11053,7 @@
         <v>27</v>
       </c>
       <c r="J68" s="25">
-        <f>VLOOKUP(A68,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K68" s="26"/>
       <c r="L68" s="26"/>
@@ -11506,7 +11502,7 @@
         <v>120</v>
       </c>
       <c r="J74" s="25">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K74" s="26"/>
       <c r="L74" s="26"/>
@@ -11521,7 +11517,7 @@
       </c>
       <c r="R74" s="20"/>
       <c r="S74" s="20">
-        <f t="shared" ref="S71:S94" si="21">R74</f>
+        <f t="shared" ref="S74:S94" si="21">R74</f>
         <v>0</v>
       </c>
       <c r="T74" s="20"/>
@@ -11922,8 +11918,7 @@
         <v>37</v>
       </c>
       <c r="J80" s="25">
-        <f>VLOOKUP(A80,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="K80" s="26"/>
       <c r="L80" s="26"/>
@@ -11999,8 +11994,7 @@
         <v>76</v>
       </c>
       <c r="J81" s="25">
-        <f>VLOOKUP(A81,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K81" s="26"/>
       <c r="L81" s="26"/>
@@ -12073,8 +12067,7 @@
         <v>78.64</v>
       </c>
       <c r="J82" s="25">
-        <f>VLOOKUP(A82,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K82" s="26"/>
       <c r="L82" s="26"/>
@@ -12150,8 +12143,7 @@
         <v>88</v>
       </c>
       <c r="J83" s="25">
-        <f>VLOOKUP(A83,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="K83" s="26"/>
       <c r="L83" s="26"/>
@@ -12227,8 +12219,7 @@
         <v>99</v>
       </c>
       <c r="J84" s="25">
-        <f>VLOOKUP(A84,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="K84" s="26"/>
       <c r="L84" s="26"/>
@@ -12301,8 +12292,7 @@
         <v>132</v>
       </c>
       <c r="J85" s="25">
-        <f>VLOOKUP(A85,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K85" s="26"/>
       <c r="L85" s="26"/>
@@ -12378,8 +12368,7 @@
         <v>83</v>
       </c>
       <c r="J86" s="25">
-        <f>VLOOKUP(A86,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K86" s="26"/>
       <c r="L86" s="26"/>
@@ -12452,8 +12441,7 @@
         <v>17.36</v>
       </c>
       <c r="J87" s="25">
-        <f>VLOOKUP(A87,[1]TDSheet!$A:$J,10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87" s="26"/>
       <c r="L87" s="26"/>
